--- a/yjc/research/出运清单汇总.xlsx
+++ b/yjc/research/出运清单汇总.xlsx
@@ -5,17 +5,21 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\yjc\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5F8FE9-563C-445C-A1DC-B63947888E2C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1EF0BF-09A0-4057-ACA5-F2B73BE39875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" xr2:uid="{DA59B591-C019-44C6-A6BE-C079C3857492}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{DA59B591-C019-44C6-A6BE-C079C3857492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="192">
   <si>
     <t>票数</t>
   </si>
@@ -549,6 +553,72 @@
   <si>
     <t>1918E</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>4月14日</t>
+  </si>
+  <si>
+    <t>4月17日</t>
+  </si>
+  <si>
+    <t>4月21日</t>
+  </si>
+  <si>
+    <t>4月24日</t>
+  </si>
+  <si>
+    <t>4月28日</t>
+  </si>
+  <si>
+    <t>5月1日</t>
+  </si>
+  <si>
+    <t>5月5日</t>
+  </si>
+  <si>
+    <t>5月8日</t>
+  </si>
+  <si>
+    <t>5月12日</t>
+  </si>
+  <si>
+    <t>5月15日</t>
+  </si>
+  <si>
+    <t>5月19日</t>
+  </si>
+  <si>
+    <t>5月22日</t>
+  </si>
+  <si>
+    <t>5月26日</t>
+  </si>
+  <si>
+    <t>5月29日</t>
+  </si>
+  <si>
+    <t>6月2日</t>
+  </si>
+  <si>
+    <t>6月5日</t>
+  </si>
+  <si>
+    <t>6月9日</t>
+  </si>
+  <si>
+    <t>6月16日</t>
+  </si>
+  <si>
+    <t>Count of ETD</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -598,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +676,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,9 +723,2433 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="咚咚呛" refreshedDate="43631.418029976849" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="96" xr:uid="{CD0C5E23-6B68-46DC-8F93-449E310EB243}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="14">
+    <cacheField name="ETD" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-04-14T00:00:00" maxDate="2019-06-17T00:00:00" count="18">
+        <d v="2019-04-14T00:00:00"/>
+        <d v="2019-04-17T00:00:00"/>
+        <d v="2019-04-21T00:00:00"/>
+        <d v="2019-04-24T00:00:00"/>
+        <d v="2019-04-28T00:00:00"/>
+        <d v="2019-05-01T00:00:00"/>
+        <d v="2019-05-05T00:00:00"/>
+        <d v="2019-05-08T00:00:00"/>
+        <d v="2019-05-12T00:00:00"/>
+        <d v="2019-05-15T00:00:00"/>
+        <d v="2019-05-19T00:00:00"/>
+        <d v="2019-05-22T00:00:00"/>
+        <d v="2019-05-26T00:00:00"/>
+        <d v="2019-05-29T00:00:00"/>
+        <d v="2019-06-02T00:00:00"/>
+        <d v="2019-06-05T00:00:00"/>
+        <d v="2019-06-09T00:00:00"/>
+        <d v="2019-06-16T00:00:00"/>
+      </sharedItems>
+      <fieldGroup par="13" base="0">
+        <rangePr groupBy="days" startDate="2019-04-14T00:00:00" endDate="2019-06-17T00:00:00"/>
+        <groupItems count="368">
+          <s v="&lt;2019-4-14"/>
+          <s v="1月1日"/>
+          <s v="1月2日"/>
+          <s v="1月3日"/>
+          <s v="1月4日"/>
+          <s v="1月5日"/>
+          <s v="1月6日"/>
+          <s v="1月7日"/>
+          <s v="1月8日"/>
+          <s v="1月9日"/>
+          <s v="1月10日"/>
+          <s v="1月11日"/>
+          <s v="1月12日"/>
+          <s v="1月13日"/>
+          <s v="1月14日"/>
+          <s v="1月15日"/>
+          <s v="1月16日"/>
+          <s v="1月17日"/>
+          <s v="1月18日"/>
+          <s v="1月19日"/>
+          <s v="1月20日"/>
+          <s v="1月21日"/>
+          <s v="1月22日"/>
+          <s v="1月23日"/>
+          <s v="1月24日"/>
+          <s v="1月25日"/>
+          <s v="1月26日"/>
+          <s v="1月27日"/>
+          <s v="1月28日"/>
+          <s v="1月29日"/>
+          <s v="1月30日"/>
+          <s v="1月31日"/>
+          <s v="2月1日"/>
+          <s v="2月2日"/>
+          <s v="2月3日"/>
+          <s v="2月4日"/>
+          <s v="2月5日"/>
+          <s v="2月6日"/>
+          <s v="2月7日"/>
+          <s v="2月8日"/>
+          <s v="2月9日"/>
+          <s v="2月10日"/>
+          <s v="2月11日"/>
+          <s v="2月12日"/>
+          <s v="2月13日"/>
+          <s v="2月14日"/>
+          <s v="2月15日"/>
+          <s v="2月16日"/>
+          <s v="2月17日"/>
+          <s v="2月18日"/>
+          <s v="2月19日"/>
+          <s v="2月20日"/>
+          <s v="2月21日"/>
+          <s v="2月22日"/>
+          <s v="2月23日"/>
+          <s v="2月24日"/>
+          <s v="2月25日"/>
+          <s v="2月26日"/>
+          <s v="2月27日"/>
+          <s v="2月28日"/>
+          <s v="2月29日"/>
+          <s v="3月1日"/>
+          <s v="3月2日"/>
+          <s v="3月3日"/>
+          <s v="3月4日"/>
+          <s v="3月5日"/>
+          <s v="3月6日"/>
+          <s v="3月7日"/>
+          <s v="3月8日"/>
+          <s v="3月9日"/>
+          <s v="3月10日"/>
+          <s v="3月11日"/>
+          <s v="3月12日"/>
+          <s v="3月13日"/>
+          <s v="3月14日"/>
+          <s v="3月15日"/>
+          <s v="3月16日"/>
+          <s v="3月17日"/>
+          <s v="3月18日"/>
+          <s v="3月19日"/>
+          <s v="3月20日"/>
+          <s v="3月21日"/>
+          <s v="3月22日"/>
+          <s v="3月23日"/>
+          <s v="3月24日"/>
+          <s v="3月25日"/>
+          <s v="3月26日"/>
+          <s v="3月27日"/>
+          <s v="3月28日"/>
+          <s v="3月29日"/>
+          <s v="3月30日"/>
+          <s v="3月31日"/>
+          <s v="4月1日"/>
+          <s v="4月2日"/>
+          <s v="4月3日"/>
+          <s v="4月4日"/>
+          <s v="4月5日"/>
+          <s v="4月6日"/>
+          <s v="4月7日"/>
+          <s v="4月8日"/>
+          <s v="4月9日"/>
+          <s v="4月10日"/>
+          <s v="4月11日"/>
+          <s v="4月12日"/>
+          <s v="4月13日"/>
+          <s v="4月14日"/>
+          <s v="4月15日"/>
+          <s v="4月16日"/>
+          <s v="4月17日"/>
+          <s v="4月18日"/>
+          <s v="4月19日"/>
+          <s v="4月20日"/>
+          <s v="4月21日"/>
+          <s v="4月22日"/>
+          <s v="4月23日"/>
+          <s v="4月24日"/>
+          <s v="4月25日"/>
+          <s v="4月26日"/>
+          <s v="4月27日"/>
+          <s v="4月28日"/>
+          <s v="4月29日"/>
+          <s v="4月30日"/>
+          <s v="5月1日"/>
+          <s v="5月2日"/>
+          <s v="5月3日"/>
+          <s v="5月4日"/>
+          <s v="5月5日"/>
+          <s v="5月6日"/>
+          <s v="5月7日"/>
+          <s v="5月8日"/>
+          <s v="5月9日"/>
+          <s v="5月10日"/>
+          <s v="5月11日"/>
+          <s v="5月12日"/>
+          <s v="5月13日"/>
+          <s v="5月14日"/>
+          <s v="5月15日"/>
+          <s v="5月16日"/>
+          <s v="5月17日"/>
+          <s v="5月18日"/>
+          <s v="5月19日"/>
+          <s v="5月20日"/>
+          <s v="5月21日"/>
+          <s v="5月22日"/>
+          <s v="5月23日"/>
+          <s v="5月24日"/>
+          <s v="5月25日"/>
+          <s v="5月26日"/>
+          <s v="5月27日"/>
+          <s v="5月28日"/>
+          <s v="5月29日"/>
+          <s v="5月30日"/>
+          <s v="5月31日"/>
+          <s v="6月1日"/>
+          <s v="6月2日"/>
+          <s v="6月3日"/>
+          <s v="6月4日"/>
+          <s v="6月5日"/>
+          <s v="6月6日"/>
+          <s v="6月7日"/>
+          <s v="6月8日"/>
+          <s v="6月9日"/>
+          <s v="6月10日"/>
+          <s v="6月11日"/>
+          <s v="6月12日"/>
+          <s v="6月13日"/>
+          <s v="6月14日"/>
+          <s v="6月15日"/>
+          <s v="6月16日"/>
+          <s v="6月17日"/>
+          <s v="6月18日"/>
+          <s v="6月19日"/>
+          <s v="6月20日"/>
+          <s v="6月21日"/>
+          <s v="6月22日"/>
+          <s v="6月23日"/>
+          <s v="6月24日"/>
+          <s v="6月25日"/>
+          <s v="6月26日"/>
+          <s v="6月27日"/>
+          <s v="6月28日"/>
+          <s v="6月29日"/>
+          <s v="6月30日"/>
+          <s v="7月1日"/>
+          <s v="7月2日"/>
+          <s v="7月3日"/>
+          <s v="7月4日"/>
+          <s v="7月5日"/>
+          <s v="7月6日"/>
+          <s v="7月7日"/>
+          <s v="7月8日"/>
+          <s v="7月9日"/>
+          <s v="7月10日"/>
+          <s v="7月11日"/>
+          <s v="7月12日"/>
+          <s v="7月13日"/>
+          <s v="7月14日"/>
+          <s v="7月15日"/>
+          <s v="7月16日"/>
+          <s v="7月17日"/>
+          <s v="7月18日"/>
+          <s v="7月19日"/>
+          <s v="7月20日"/>
+          <s v="7月21日"/>
+          <s v="7月22日"/>
+          <s v="7月23日"/>
+          <s v="7月24日"/>
+          <s v="7月25日"/>
+          <s v="7月26日"/>
+          <s v="7月27日"/>
+          <s v="7月28日"/>
+          <s v="7月29日"/>
+          <s v="7月30日"/>
+          <s v="7月31日"/>
+          <s v="8月1日"/>
+          <s v="8月2日"/>
+          <s v="8月3日"/>
+          <s v="8月4日"/>
+          <s v="8月5日"/>
+          <s v="8月6日"/>
+          <s v="8月7日"/>
+          <s v="8月8日"/>
+          <s v="8月9日"/>
+          <s v="8月10日"/>
+          <s v="8月11日"/>
+          <s v="8月12日"/>
+          <s v="8月13日"/>
+          <s v="8月14日"/>
+          <s v="8月15日"/>
+          <s v="8月16日"/>
+          <s v="8月17日"/>
+          <s v="8月18日"/>
+          <s v="8月19日"/>
+          <s v="8月20日"/>
+          <s v="8月21日"/>
+          <s v="8月22日"/>
+          <s v="8月23日"/>
+          <s v="8月24日"/>
+          <s v="8月25日"/>
+          <s v="8月26日"/>
+          <s v="8月27日"/>
+          <s v="8月28日"/>
+          <s v="8月29日"/>
+          <s v="8月30日"/>
+          <s v="8月31日"/>
+          <s v="9月1日"/>
+          <s v="9月2日"/>
+          <s v="9月3日"/>
+          <s v="9月4日"/>
+          <s v="9月5日"/>
+          <s v="9月6日"/>
+          <s v="9月7日"/>
+          <s v="9月8日"/>
+          <s v="9月9日"/>
+          <s v="9月10日"/>
+          <s v="9月11日"/>
+          <s v="9月12日"/>
+          <s v="9月13日"/>
+          <s v="9月14日"/>
+          <s v="9月15日"/>
+          <s v="9月16日"/>
+          <s v="9月17日"/>
+          <s v="9月18日"/>
+          <s v="9月19日"/>
+          <s v="9月20日"/>
+          <s v="9月21日"/>
+          <s v="9月22日"/>
+          <s v="9月23日"/>
+          <s v="9月24日"/>
+          <s v="9月25日"/>
+          <s v="9月26日"/>
+          <s v="9月27日"/>
+          <s v="9月28日"/>
+          <s v="9月29日"/>
+          <s v="9月30日"/>
+          <s v="10月1日"/>
+          <s v="10月2日"/>
+          <s v="10月3日"/>
+          <s v="10月4日"/>
+          <s v="10月5日"/>
+          <s v="10月6日"/>
+          <s v="10月7日"/>
+          <s v="10月8日"/>
+          <s v="10月9日"/>
+          <s v="10月10日"/>
+          <s v="10月11日"/>
+          <s v="10月12日"/>
+          <s v="10月13日"/>
+          <s v="10月14日"/>
+          <s v="10月15日"/>
+          <s v="10月16日"/>
+          <s v="10月17日"/>
+          <s v="10月18日"/>
+          <s v="10月19日"/>
+          <s v="10月20日"/>
+          <s v="10月21日"/>
+          <s v="10月22日"/>
+          <s v="10月23日"/>
+          <s v="10月24日"/>
+          <s v="10月25日"/>
+          <s v="10月26日"/>
+          <s v="10月27日"/>
+          <s v="10月28日"/>
+          <s v="10月29日"/>
+          <s v="10月30日"/>
+          <s v="10月31日"/>
+          <s v="11月1日"/>
+          <s v="11月2日"/>
+          <s v="11月3日"/>
+          <s v="11月4日"/>
+          <s v="11月5日"/>
+          <s v="11月6日"/>
+          <s v="11月7日"/>
+          <s v="11月8日"/>
+          <s v="11月9日"/>
+          <s v="11月10日"/>
+          <s v="11月11日"/>
+          <s v="11月12日"/>
+          <s v="11月13日"/>
+          <s v="11月14日"/>
+          <s v="11月15日"/>
+          <s v="11月16日"/>
+          <s v="11月17日"/>
+          <s v="11月18日"/>
+          <s v="11月19日"/>
+          <s v="11月20日"/>
+          <s v="11月21日"/>
+          <s v="11月22日"/>
+          <s v="11月23日"/>
+          <s v="11月24日"/>
+          <s v="11月25日"/>
+          <s v="11月26日"/>
+          <s v="11月27日"/>
+          <s v="11月28日"/>
+          <s v="11月29日"/>
+          <s v="11月30日"/>
+          <s v="12月1日"/>
+          <s v="12月2日"/>
+          <s v="12月3日"/>
+          <s v="12月4日"/>
+          <s v="12月5日"/>
+          <s v="12月6日"/>
+          <s v="12月7日"/>
+          <s v="12月8日"/>
+          <s v="12月9日"/>
+          <s v="12月10日"/>
+          <s v="12月11日"/>
+          <s v="12月12日"/>
+          <s v="12月13日"/>
+          <s v="12月14日"/>
+          <s v="12月15日"/>
+          <s v="12月16日"/>
+          <s v="12月17日"/>
+          <s v="12月18日"/>
+          <s v="12月19日"/>
+          <s v="12月20日"/>
+          <s v="12月21日"/>
+          <s v="12月22日"/>
+          <s v="12月23日"/>
+          <s v="12月24日"/>
+          <s v="12月25日"/>
+          <s v="12月26日"/>
+          <s v="12月27日"/>
+          <s v="12月28日"/>
+          <s v="12月29日"/>
+          <s v="12月30日"/>
+          <s v="12月31日"/>
+          <s v="&gt;2019-6-17"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+    <cacheField name="Vessel" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Voyage" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="M B/L" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="票数" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="客户" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="类型" numFmtId="0">
+      <sharedItems count="2">
+        <s v="电放"/>
+        <s v="SWB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="20" numFmtId="177">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="13"/>
+    </cacheField>
+    <cacheField name="40" numFmtId="177">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="40H" numFmtId="177">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+    </cacheField>
+    <cacheField name="P/C" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="FREIGHT" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="REMARK" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Months" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
+        <rangePr groupBy="months" startDate="2019-04-14T00:00:00" endDate="2019-06-17T00:00:00"/>
+        <groupItems count="14">
+          <s v="&lt;2019-4-14"/>
+          <s v="1月"/>
+          <s v="2月"/>
+          <s v="3月"/>
+          <s v="4月"/>
+          <s v="5月"/>
+          <s v="6月"/>
+          <s v="7月"/>
+          <s v="8月"/>
+          <s v="9月"/>
+          <s v="10月"/>
+          <s v="11月"/>
+          <s v="12月"/>
+          <s v="&gt;2019-6-17"/>
+        </groupItems>
+      </fieldGroup>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="96">
+  <r>
+    <x v="0"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1915E"/>
+    <s v="PCLU1915PS4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI000965"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1915E"/>
+    <s v="PCLU1915PS4100"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="P"/>
+    <s v="OCF：USD100"/>
+    <s v="BAF CAF CRS PP"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1915E"/>
+    <s v="PCLU1915PS4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1915E"/>
+    <s v="PCLU1915PS4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4303"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1915E"/>
+    <s v="PCLU1915PS4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="12"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4401-02"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1915E"/>
+    <s v="PCLU1915PS4404"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4405"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1770E"/>
+    <s v="PCLU1770PE4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1770E"/>
+    <s v="PCLU1770PE4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1770E"/>
+    <s v="PCLU1770PE4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1770E"/>
+    <s v="PCLU1770PE4402"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4403"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4050"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="P"/>
+    <s v="USD100"/>
+    <s v="BAF CAF CC"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI000965"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4100"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="P"/>
+    <s v="USD200"/>
+    <s v="BAF CAF CRS PP"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4305"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4306"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4401-02"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1916E"/>
+    <s v="PCLU1916PS4404"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4405"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1771E"/>
+    <s v="PCLU1771PE4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4301"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1771E"/>
+    <s v="PCLU1771PE4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1771E"/>
+    <s v="PCLU1771PE4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4305"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1771E"/>
+    <s v="PCLU1771PE4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4401-02"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1771E"/>
+    <s v="PCLU1771PE4404"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4405"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1917E"/>
+    <s v="PCLU1917PS4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="SC NO:KRI000965"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1917E"/>
+    <s v="PCLU1917PS4100"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="P"/>
+    <s v="USD200"/>
+    <s v="BAF CAF PP CRS PP"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1917E"/>
+    <s v="PCLU1917PS4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1917E"/>
+    <s v="PCLU1917PS4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4305"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1917E"/>
+    <s v="PCLU1917PS4306"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1917E"/>
+    <s v="PCLU1917PS4402"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1772E"/>
+    <s v="PCLU1772PE4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1772E"/>
+    <s v="PCLU1772PE4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1772E"/>
+    <s v="PCLU1772PE4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4305"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1772E"/>
+    <s v="PCLU1772PE4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1772E"/>
+    <s v="PCLU1772PE4402"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1918E"/>
+    <s v="PCLU1918PS4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1918E"/>
+    <s v="PCLU1918PS4306"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1918E"/>
+    <s v="PCLU1918PS4308"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4309"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1918E"/>
+    <s v="PCLU1918PS4310"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="KRI001774并单4311"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1918E"/>
+    <s v="PCLU1918PS4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1918E"/>
+    <s v="PCLU1918PS4402"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="13"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4403-4404"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1773E"/>
+    <s v="PCLU1773PE4100"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001711"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1773E"/>
+    <s v="PCLU1773PE4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1773E"/>
+    <s v="PCLU1773PE4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4303"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="SC NO:KRI000965"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4102"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="P"/>
+    <s v="OCF：USD100"/>
+    <s v="BAF CAF PP CRS PP"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4306"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4308"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4310"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4311"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774加拼4401 4402"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4404"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="PANCON SUCCESS "/>
+    <s v="1919E"/>
+    <s v="PCLU1919PS4500"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1774E"/>
+    <s v="PCLU1774PE4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1774E"/>
+    <s v="PCLU1774PE4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4305"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1774E"/>
+    <s v="PCLU1774PE4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774加拼4401/4402"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1774E"/>
+    <s v="PCLU1774PE4405"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774加拼4409"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1774E"/>
+    <s v="PCLU1774PE4406"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774加拼4407"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4100 "/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="P"/>
+    <s v="OCF：USD100"/>
+    <s v="BAF CAF PP CRS PP"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="SC NO:KRI000965"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4305"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4306"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4307"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="10"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774加拼4401/4402"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4404"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1920E"/>
+    <s v="PCLU1920HN4406"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1775E"/>
+    <s v="PCLU1775PE4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1775E"/>
+    <s v="PCLU1775PE4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4303"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1775E"/>
+    <s v="PCLU1775PE4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1921E"/>
+    <s v="PCLU1921HN4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="SC NO:KRI000965"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1921E"/>
+    <s v="PCLU1921HN4100"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="P"/>
+    <s v="OCF：USD80"/>
+    <s v="BAF CAF PP CRS PP"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1921E"/>
+    <s v="PCLU1921HN4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1921E"/>
+    <s v="PCLU1921HN4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1921E"/>
+    <s v="PCLU1921HN4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1921E"/>
+    <s v="PCLU1921HN4306"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4307"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1921E"/>
+    <s v="PCLU1921HN4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1776E"/>
+    <s v="PCLU1776PE4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1776E"/>
+    <s v="PCLU1776PE4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1776E"/>
+    <s v="PCLU1776PE4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并单4305"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1922E"/>
+    <s v="PCLU1922HN4100"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <n v="1"/>
+    <s v="P"/>
+    <s v="申请 20/40 含LSS"/>
+    <s v="BAF CAF PP CRS PP"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1922E"/>
+    <s v="PCLU1922HN4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1922E"/>
+    <s v="PCLU1922HN4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1922E"/>
+    <s v="PCLU1922HN4304"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="PEGASUS TERA "/>
+    <s v="1777E"/>
+    <s v="PCLU1777PE4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4401"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1923E"/>
+    <s v="PCLU1923HN4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="SC NO:KRI000965"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1923E"/>
+    <s v="PCLU1923HN4101"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="P"/>
+    <s v="OCF：USD10（-40）"/>
+    <s v="申请BAF CAF PP CRS PP"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1923E"/>
+    <s v="PCLU1923HN4300"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1923E"/>
+    <s v="PCLU1923HN4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774拼4303"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1923E"/>
+    <s v="PCLU1923HN4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="8"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774拼4401"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1924E"/>
+    <s v="PCLU1924HN4010"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="P"/>
+    <m/>
+    <s v="BAF CAF CC"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1924E"/>
+    <s v="PCLU1924HN4060"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <s v="C"/>
+    <m/>
+    <s v="SC NO:KRI000965"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1924E"/>
+    <s v="PCLU1924HN4101"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="0"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <s v="P"/>
+    <s v="OCF：USD10（-60）"/>
+    <s v="BAF CAF PP CRS PP"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1924E"/>
+    <s v="PCLU1924HN4302"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="CHATTANOOGA "/>
+    <s v="V.1924E"/>
+    <s v="PCLU1924HN4400"/>
+    <n v="1"/>
+    <s v="裕佳昌"/>
+    <x v="1"/>
+    <n v="9"/>
+    <m/>
+    <m/>
+    <s v="C"/>
+    <m/>
+    <s v="KRI001774并4401"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A01DACF-52C7-4333-BEA3-29A6037C5E33}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" dataField="1" numFmtId="176" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ETD" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{709DFB93-8806-45F0-A09D-C7E4B1B6E8F2}" name="Table1" displayName="Table1" ref="A1:M97" totalsRowShown="0">
   <autoFilter ref="A1:M97" xr:uid="{DCFD9157-A85F-428F-95C8-F7C8355FEF51}"/>
+  <sortState ref="A2:M97">
+    <sortCondition ref="A27"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{E4C49E14-7BEA-4DF9-BEBC-D0E5B2042677}" name="ETD" dataDxfId="5"/>
     <tableColumn id="20" xr3:uid="{5BC0C154-9C2B-469E-B19D-C82E46E0BFF1}" name="Vessel" dataDxfId="4"/>
@@ -966,8 +3469,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,16 +3530,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43632</v>
+        <v>43569</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1053,24 +3556,24 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43632</v>
+        <v>43569</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1087,24 +3590,27 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43632</v>
+        <v>43569</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1113,35 +3619,32 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
       <c r="K4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43632</v>
+        <v>43569</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1155,27 +3658,27 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43632</v>
+        <v>43569</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1187,7 +3690,7 @@
         <v>17</v>
       </c>
       <c r="H6" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1195,21 +3698,21 @@
         <v>11</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43583</v>
+        <v>43569</v>
       </c>
       <c r="B7" t="s">
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1218,32 +3721,32 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43583</v>
+        <v>43572</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1252,35 +3755,32 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43583</v>
+        <v>43572</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1305,16 +3805,16 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43583</v>
+        <v>43572</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1334,21 +3834,21 @@
         <v>11</v>
       </c>
       <c r="M10" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43583</v>
+        <v>43572</v>
       </c>
       <c r="B11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1368,21 +3868,21 @@
         <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43583</v>
+        <v>43576</v>
       </c>
       <c r="B12" t="s">
         <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1391,18 +3891,21 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1416,7 +3919,7 @@
         <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1427,19 +3930,16 @@
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1453,7 +3953,7 @@
         <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1465,15 +3965,18 @@
         <v>7</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1487,7 +3990,7 @@
         <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1496,21 +3999,18 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M15" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1524,7 +4024,7 @@
         <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1538,13 +4038,13 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>11</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1558,7 +4058,7 @@
         <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1578,7 +4078,7 @@
         <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1592,7 +4092,7 @@
         <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1603,16 +4103,16 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>10</v>
+      </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" t="s">
         <v>11</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1626,7 +4126,7 @@
         <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1637,30 +4137,30 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="2">
-        <v>10</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43576</v>
+        <v>43579</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1674,27 +4174,27 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
       </c>
       <c r="M20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43625</v>
+        <v>43579</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1703,32 +4203,32 @@
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="M21" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43625</v>
+        <v>43579</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1737,35 +4237,32 @@
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
       <c r="K22" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43625</v>
+        <v>43579</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1776,30 +4273,30 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>10</v>
+      </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
+      <c r="J23" s="2"/>
       <c r="K23" t="s">
         <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43625</v>
+        <v>43579</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1813,27 +4310,27 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
       </c>
       <c r="M24" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43625</v>
+        <v>43583</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1842,32 +4339,32 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="2">
-        <v>8</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" t="s">
         <v>11</v>
       </c>
       <c r="M25" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43618</v>
+        <v>43583</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1878,18 +4375,16 @@
       <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="2">
-        <v>1</v>
-      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="s">
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M26" t="s">
         <v>15</v>
@@ -1897,16 +4392,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43618</v>
+        <v>43583</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1920,7 +4415,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="s">
         <v>11</v>
@@ -1931,16 +4426,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43618</v>
+        <v>43583</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1960,21 +4455,21 @@
         <v>11</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>43618</v>
+        <v>43583</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1988,7 +4483,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
@@ -1999,16 +4494,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>43579</v>
+        <v>43583</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2022,27 +4517,27 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="s">
         <v>11</v>
       </c>
       <c r="M30" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43579</v>
+        <v>43586</v>
       </c>
       <c r="B31" t="s">
         <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2067,16 +4562,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>43579</v>
+        <v>43586</v>
       </c>
       <c r="B32" t="s">
         <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2096,21 +4591,21 @@
         <v>11</v>
       </c>
       <c r="M32" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>43579</v>
+        <v>43586</v>
       </c>
       <c r="B33" t="s">
         <v>153</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2121,30 +4616,30 @@
       <c r="G33" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="2">
-        <v>10</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
       <c r="K33" t="s">
         <v>11</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43579</v>
+        <v>43586</v>
       </c>
       <c r="B34" t="s">
         <v>153</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2155,30 +4650,30 @@
       <c r="G34" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2">
-        <v>2</v>
-      </c>
+      <c r="J34" s="2"/>
       <c r="K34" t="s">
         <v>11</v>
       </c>
       <c r="M34" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>43569</v>
+        <v>43586</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2187,7 +4682,7 @@
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -2198,21 +4693,21 @@
         <v>11</v>
       </c>
       <c r="M35" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43569</v>
+        <v>43590</v>
       </c>
       <c r="B36" t="s">
         <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2221,7 +4716,7 @@
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -2229,27 +4724,24 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>8</v>
-      </c>
-      <c r="L36" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="M36" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43569</v>
+        <v>43590</v>
       </c>
       <c r="B37" t="s">
         <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2263,7 +4755,7 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="s">
         <v>11</v>
@@ -2274,16 +4766,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>43569</v>
+        <v>43590</v>
       </c>
       <c r="B38" t="s">
         <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2303,21 +4795,21 @@
         <v>11</v>
       </c>
       <c r="M38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>43569</v>
+        <v>43590</v>
       </c>
       <c r="B39" t="s">
         <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2328,30 +4820,27 @@
       <c r="G39" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="2">
-        <v>12</v>
-      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" t="s">
-        <v>11</v>
+      <c r="J39" s="2">
+        <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43569</v>
+        <v>43590</v>
       </c>
       <c r="B40" t="s">
         <v>148</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2371,21 +4860,21 @@
         <v>11</v>
       </c>
       <c r="M40" t="s">
-        <v>134</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43572</v>
+        <v>43590</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2396,30 +4885,30 @@
       <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>13</v>
+      </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2">
-        <v>1</v>
-      </c>
+      <c r="J41" s="2"/>
       <c r="K41" t="s">
         <v>11</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43572</v>
+        <v>43593</v>
       </c>
       <c r="B42" t="s">
         <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2428,32 +4917,32 @@
         <v>6</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2">
-        <v>3</v>
-      </c>
+      <c r="J42" s="2"/>
       <c r="K42" t="s">
         <v>11</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43572</v>
+        <v>43593</v>
       </c>
       <c r="B43" t="s">
         <v>153</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2467,7 +4956,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
         <v>11</v>
@@ -2478,16 +4967,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43572</v>
+        <v>43593</v>
       </c>
       <c r="B44" t="s">
         <v>153</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2501,27 +4990,27 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
         <v>11</v>
       </c>
       <c r="M44" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43621</v>
+        <v>43597</v>
       </c>
       <c r="B45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2530,32 +5019,32 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="2">
-        <v>8</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" t="s">
         <v>11</v>
       </c>
       <c r="M45" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43614</v>
+        <v>43597</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2564,32 +5053,35 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L46" t="s">
+        <v>63</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>43614</v>
+        <v>43597</v>
       </c>
       <c r="B47" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2603,7 +5095,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
         <v>11</v>
@@ -2614,16 +5106,16 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>43614</v>
+        <v>43597</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2637,27 +5129,27 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K48" t="s">
         <v>11</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>43600</v>
+        <v>43597</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2671,7 +5163,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K49" t="s">
         <v>11</v>
@@ -2682,16 +5174,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43600</v>
+        <v>43597</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2705,27 +5197,27 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="s">
         <v>11</v>
       </c>
       <c r="M50" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43600</v>
+        <v>43597</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2736,30 +5228,30 @@
       <c r="G51" t="s">
         <v>17</v>
       </c>
-      <c r="H51" s="2">
-        <v>10</v>
-      </c>
+      <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
       <c r="K51" t="s">
         <v>11</v>
       </c>
       <c r="M51" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>43600</v>
+        <v>43597</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2773,27 +5265,27 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" t="s">
         <v>11</v>
       </c>
       <c r="M52" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43600</v>
+        <v>43597</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2805,7 +5297,7 @@
         <v>17</v>
       </c>
       <c r="H53" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -2813,21 +5305,21 @@
         <v>11</v>
       </c>
       <c r="M53" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>43607</v>
+        <v>43597</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2852,16 +5344,16 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>43607</v>
+        <v>43597</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2881,21 +5373,21 @@
         <v>11</v>
       </c>
       <c r="M55" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>43607</v>
+        <v>43600</v>
       </c>
       <c r="B56" t="s">
         <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2909,7 +5401,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K56" t="s">
         <v>11</v>
@@ -2920,16 +5412,16 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>43604</v>
+        <v>43600</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2938,35 +5430,32 @@
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="M57" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>43604</v>
+        <v>43600</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2975,32 +5464,32 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H58" s="2">
+        <v>10</v>
+      </c>
+      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" t="s">
         <v>11</v>
       </c>
       <c r="M58" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>43604</v>
+        <v>43600</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3020,21 +5509,21 @@
         <v>11</v>
       </c>
       <c r="M59" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>43604</v>
+        <v>43600</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3045,16 +5534,16 @@
       <c r="G60" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="2">
-        <v>4</v>
-      </c>
+      <c r="J60" s="2"/>
       <c r="K60" t="s">
         <v>11</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3068,7 +5557,7 @@
         <v>161</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3077,18 +5566,21 @@
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L61" t="s">
+        <v>63</v>
       </c>
       <c r="M61" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -3102,7 +5594,7 @@
         <v>161</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3111,18 +5603,18 @@
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2"/>
       <c r="K62" t="s">
         <v>11</v>
       </c>
       <c r="M62" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3136,7 +5628,7 @@
         <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3147,16 +5639,16 @@
       <c r="G63" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="2">
-        <v>10</v>
-      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2">
+        <v>2</v>
+      </c>
       <c r="K63" t="s">
         <v>11</v>
       </c>
       <c r="M63" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3170,7 +5662,7 @@
         <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3184,7 +5676,7 @@
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K64" t="s">
         <v>11</v>
@@ -3204,7 +5696,7 @@
         <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3224,21 +5716,21 @@
         <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>43611</v>
+        <v>43604</v>
       </c>
       <c r="B66" t="s">
         <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -3247,32 +5739,32 @@
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="2">
-        <v>1</v>
-      </c>
-      <c r="J66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
       <c r="K66" t="s">
         <v>11</v>
       </c>
       <c r="M66" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>43611</v>
+        <v>43604</v>
       </c>
       <c r="B67" t="s">
         <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3281,35 +5773,32 @@
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="H67" s="2">
+        <v>10</v>
+      </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
+      <c r="J67" s="2"/>
       <c r="K67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L67" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="M67" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>43611</v>
+        <v>43604</v>
       </c>
       <c r="B68" t="s">
         <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3334,16 +5823,16 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>43611</v>
+        <v>43604</v>
       </c>
       <c r="B69" t="s">
         <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3357,7 +5846,7 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
         <v>11</v>
@@ -3368,16 +5857,16 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>43611</v>
+        <v>43607</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3391,7 +5880,7 @@
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K70" t="s">
         <v>11</v>
@@ -3402,16 +5891,16 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>43611</v>
+        <v>43607</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3431,21 +5920,21 @@
         <v>11</v>
       </c>
       <c r="M71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>43611</v>
+        <v>43607</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3470,16 +5959,16 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>43597</v>
+        <v>43611</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3504,16 +5993,16 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>43597</v>
+        <v>43611</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3533,7 +6022,7 @@
         <v>8</v>
       </c>
       <c r="L74" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="M74" t="s">
         <v>15</v>
@@ -3541,16 +6030,16 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>43597</v>
+        <v>43611</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3575,16 +6064,16 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>43597</v>
+        <v>43611</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3609,16 +6098,16 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>43597</v>
+        <v>43611</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3632,7 +6121,7 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77" t="s">
         <v>11</v>
@@ -3643,16 +6132,16 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>43597</v>
+        <v>43611</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3666,27 +6155,27 @@
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K78" t="s">
         <v>11</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>43597</v>
+        <v>43611</v>
       </c>
       <c r="B79" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3711,16 +6200,16 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>43597</v>
+        <v>43614</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3734,27 +6223,27 @@
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K80" t="s">
         <v>11</v>
       </c>
       <c r="M80" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>43597</v>
+        <v>43614</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3765,30 +6254,30 @@
       <c r="G81" t="s">
         <v>17</v>
       </c>
-      <c r="H81" s="2">
-        <v>10</v>
-      </c>
+      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
+      <c r="J81" s="2">
+        <v>2</v>
+      </c>
       <c r="K81" t="s">
         <v>11</v>
       </c>
       <c r="M81" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>43597</v>
+        <v>43614</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3808,21 +6297,21 @@
         <v>11</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>43597</v>
+        <v>43618</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3831,32 +6320,37 @@
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L83" t="s">
+        <v>52</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>43593</v>
+        <v>43618</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C84" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3865,32 +6359,32 @@
         <v>6</v>
       </c>
       <c r="G84" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="2">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
       <c r="K84" t="s">
         <v>11</v>
       </c>
       <c r="M84" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>43593</v>
+        <v>43618</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3904,7 +6398,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K85" t="s">
         <v>11</v>
@@ -3915,16 +6409,16 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>43593</v>
+        <v>43618</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3944,21 +6438,21 @@
         <v>11</v>
       </c>
       <c r="M86" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>43590</v>
+        <v>43621</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3969,30 +6463,30 @@
       <c r="G87" t="s">
         <v>17</v>
       </c>
-      <c r="H87" s="2"/>
+      <c r="H87" s="2">
+        <v>8</v>
+      </c>
       <c r="I87" s="2"/>
-      <c r="J87" s="2">
-        <v>1</v>
-      </c>
+      <c r="J87" s="2"/>
       <c r="K87" t="s">
         <v>11</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>43590</v>
+        <v>43625</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D88" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4001,32 +6495,32 @@
         <v>6</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K88" t="s">
         <v>11</v>
       </c>
       <c r="M88" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>43590</v>
+        <v>43625</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4035,32 +6529,35 @@
         <v>6</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
       <c r="I89" s="2"/>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
+      <c r="J89" s="2"/>
       <c r="K89" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L89" t="s">
+        <v>44</v>
       </c>
       <c r="M89" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>43590</v>
+        <v>43625</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4076,22 +6573,25 @@
       <c r="J90" s="2">
         <v>1</v>
       </c>
+      <c r="K90" t="s">
+        <v>11</v>
+      </c>
       <c r="M90" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>43590</v>
+        <v>43625</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4105,27 +6605,27 @@
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
         <v>11</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>43590</v>
+        <v>43625</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4137,7 +6637,7 @@
         <v>17</v>
       </c>
       <c r="H92" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4145,21 +6645,21 @@
         <v>11</v>
       </c>
       <c r="M92" t="s">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>43586</v>
+        <v>43632</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4168,32 +6668,32 @@
         <v>6</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>43586</v>
+        <v>43632</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4202,7 +6702,7 @@
         <v>6</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -4213,21 +6713,21 @@
         <v>11</v>
       </c>
       <c r="M94" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>43586</v>
+        <v>43632</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C95" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4236,32 +6736,35 @@
         <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>17</v>
-      </c>
-      <c r="H95" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
       <c r="I95" s="2"/>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
+      <c r="J95" s="2"/>
       <c r="K95" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="L95" t="s">
+        <v>14</v>
       </c>
       <c r="M95" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>43586</v>
+        <v>43632</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C96" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4272,11 +6775,11 @@
       <c r="G96" t="s">
         <v>17</v>
       </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
+      <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
+      <c r="J96" s="2">
+        <v>2</v>
+      </c>
       <c r="K96" t="s">
         <v>11</v>
       </c>
@@ -4286,16 +6789,16 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>43586</v>
+        <v>43632</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4306,16 +6809,16 @@
       <c r="G97" t="s">
         <v>17</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2">
+        <v>9</v>
+      </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
+      <c r="J97" s="2"/>
       <c r="K97" t="s">
         <v>11</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4326,4 +6829,298 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BE5967-96C0-43C9-A8CA-94F0FB3AE5F3}">
+  <dimension ref="A3:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="5">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="5">
+        <v>76</v>
+      </c>
+      <c r="C23" s="5">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/yjc/research/出运清单汇总.xlsx
+++ b/yjc/research/出运清单汇总.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\rang\yjc\research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rang\yjc\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1EF0BF-09A0-4057-ACA5-F2B73BE39875}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6A0EE-3F55-4233-9F83-44B0A399658F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" activeTab="1" xr2:uid="{DA59B591-C019-44C6-A6BE-C079C3857492}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA59B591-C019-44C6-A6BE-C079C3857492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="295" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A01DACF-52C7-4333-BEA3-29A6037C5E33}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A01DACF-52C7-4333-BEA3-29A6037C5E33}" name="PivotTable1" cacheId="295" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" dataField="1" numFmtId="176" showAll="0">
@@ -3469,7 +3469,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
@@ -6835,7 +6835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BE5967-96C0-43C9-A8CA-94F0FB3AE5F3}">
   <dimension ref="A3:D23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/yjc/research/出运清单汇总.xlsx
+++ b/yjc/research/出运清单汇总.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rang\yjc\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A6A0EE-3F55-4233-9F83-44B0A399658F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483FACCC-3FEC-4617-B79A-9D48EA67DFB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA59B591-C019-44C6-A6BE-C079C3857492}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="295" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -689,7 +689,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2639,7 +2639,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A01DACF-52C7-4333-BEA3-29A6037C5E33}" name="PivotTable1" cacheId="295" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A01DACF-52C7-4333-BEA3-29A6037C5E33}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" dataField="1" numFmtId="176" showAll="0">
@@ -3170,7 +3170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3469,8 +3469,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
